--- a/New files/Oregon Health Science University/Invoice 10176150 - Hillsboro Medical Center.xlsx
+++ b/New files/Oregon Health Science University/Invoice 10176150 - Hillsboro Medical Center.xlsx
@@ -24873,4 +24873,276 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A7B740158B06348BBFDD0A82FAE521C" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b9ca6de6a992593ec3295afdb73980d5">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45be6600-ce97-4f91-b2b5-90c5c801df6a" xmlns:ns3="4ff60255-49bc-4e52-8060-8afe9711eecb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3c3625fcdb5b97911e04df756c65f947" ns2:_="" ns3:_="">
+    <xsd:import namespace="45be6600-ce97-4f91-b2b5-90c5c801df6a"/>
+    <xsd:import namespace="4ff60255-49bc-4e52-8060-8afe9711eecb"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="45be6600-ce97-4f91-b2b5-90c5c801df6a" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="94b3629e-20aa-442c-aac2-3c67759175e0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="24" nillable="true" ma:displayName="Location" ma:description="" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4ff60255-49bc-4e52-8060-8afe9711eecb" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{6c69ecb4-97a0-434f-9afd-668c5bcfe455}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="4ff60255-49bc-4e52-8060-8afe9711eecb">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BB404E7-ADBF-4596-83D7-CAE325BB6659}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{705E46C7-0092-4F1C-9BB6-CDD82B37E44E}"/>
 </file>
--- a/New files/Oregon Health Science University/Invoice 10176150 - Hillsboro Medical Center.xlsx
+++ b/New files/Oregon Health Science University/Invoice 10176150 - Hillsboro Medical Center.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90226586-D36F-4A54-91CC-311C73DCEDF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76C162F0-3C9F-4522-B1F8-C07F37A52B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0BE7ADC-70EA-4C60-8C87-C1C06ECCAA06}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFBD7EE3-B46A-401E-9D56-28C70B165917}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -1204,20 +1204,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1676400</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1180DAAC-B121-C9C2-A390-0928881FB7AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54E87A0D-A979-EAFD-B525-95C7C3D35D3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1548,7 +1548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F9E714-2AB8-4271-ABB6-EA25DAD3304D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{442E8AB4-F049-41B7-906F-8BD79BE8AADF}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1556,19 +1556,19 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="47"/>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -1581,7 +1581,7 @@
       <c r="J1" s="50"/>
       <c r="K1" s="51"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="45"/>
       <c r="G2" s="7" t="s">
         <v>1</v>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="K2" s="42"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="K3" s="42"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="45"/>
       <c r="G4" s="7" t="s">
         <v>3</v>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="K4" s="42"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="45"/>
       <c r="G5" s="7" t="s">
         <v>4</v>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="K5" s="42"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="45"/>
       <c r="G6" s="7" t="s">
         <v>5</v>
@@ -1631,18 +1631,18 @@
       </c>
       <c r="K6" s="42"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
       <c r="G7" s="7"/>
       <c r="J7" s="2"/>
       <c r="K7" s="42"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
       <c r="J8" s="2"/>
       <c r="K8" s="42"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="45"/>
       <c r="G9" s="8" t="s">
         <v>6</v>
@@ -1652,14 +1652,14 @@
       </c>
       <c r="K9" s="42"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="45"/>
       <c r="J10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="K10" s="42"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="45"/>
       <c r="B11" s="9" t="s">
         <v>0</v>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="K11" s="42"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="45"/>
       <c r="B12" s="9" t="s">
         <v>16</v>
@@ -1677,7 +1677,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="42"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="45"/>
       <c r="B13" s="9" t="s">
         <v>17</v>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="K13" s="42"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="45"/>
       <c r="B14" s="9" t="s">
         <v>18</v>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="K14" s="42"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="9"/>
       <c r="J15" s="2" t="s">
@@ -1705,13 +1705,13 @@
       </c>
       <c r="K15" s="42"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="9"/>
       <c r="J16" s="2"/>
       <c r="K16" s="42"/>
     </row>
-    <row r="17" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="45"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -1726,11 +1726,11 @@
       <c r="J17" s="1"/>
       <c r="K17" s="42"/>
     </row>
-    <row r="18" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="K18" s="42"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="C19" s="10" t="s">
         <v>16</v>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="K19" s="42"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -1756,11 +1756,11 @@
       </c>
       <c r="K20" s="42"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="K21" s="42"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="C22" s="22" t="s">
         <v>21</v>
@@ -1780,7 +1780,7 @@
       <c r="J22" s="33"/>
       <c r="K22" s="42"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="C23" s="23">
         <v>60401</v>
@@ -1800,7 +1800,7 @@
       <c r="J23" s="33"/>
       <c r="K23" s="42"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="C24" s="23">
         <v>61102</v>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="K24" s="42"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
       <c r="C25" s="23">
         <v>62001</v>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="K25" s="42"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
       <c r="C26" s="23">
         <v>62201</v>
@@ -1848,7 +1848,7 @@
       </c>
       <c r="K26" s="42"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="45"/>
       <c r="C27" s="23">
         <v>63001</v>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="K27" s="42"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="45"/>
       <c r="C28" s="23">
         <v>64601</v>
@@ -1880,7 +1880,7 @@
       </c>
       <c r="K28" s="42"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="C29" s="23">
         <v>67801</v>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="K29" s="42"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="45"/>
       <c r="C30" s="23">
         <v>65402</v>
@@ -1912,7 +1912,7 @@
       </c>
       <c r="K30" s="42"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
       <c r="C31" s="23">
         <v>66001</v>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="K31" s="42"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
       <c r="C32" s="23">
         <v>67501</v>
@@ -1944,7 +1944,7 @@
       </c>
       <c r="K32" s="42"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="C33" s="23">
         <v>70200</v>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="K33" s="42"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="45"/>
       <c r="C34" s="23">
         <v>71901</v>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="K34" s="42"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
       <c r="C35" s="23">
         <v>72001</v>
@@ -1992,7 +1992,7 @@
       </c>
       <c r="K35" s="42"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
       <c r="C36" s="23">
         <v>72601</v>
@@ -2008,7 +2008,7 @@
       </c>
       <c r="K36" s="42"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
       <c r="C37" s="23">
         <v>72801</v>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="K37" s="42"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
       <c r="C38" s="23">
         <v>73601</v>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="K38" s="42"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="45"/>
       <c r="C39" s="23">
         <v>96223</v>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="K39" s="42"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="45"/>
       <c r="C40" s="24" t="s">
         <v>40</v>
@@ -2070,11 +2070,11 @@
       </c>
       <c r="K40" s="42"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="45"/>
       <c r="K41" s="42"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="45"/>
       <c r="D42" s="22" t="s">
         <v>41</v>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="K42" s="42"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="45"/>
       <c r="D43" s="23" t="s">
         <v>42</v>
@@ -2100,7 +2100,7 @@
       </c>
       <c r="K43" s="42"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="45"/>
       <c r="D44" s="23" t="s">
         <v>43</v>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="K44" s="42"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="45"/>
       <c r="D45" s="23" t="s">
         <v>44</v>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="K45" s="42"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="45"/>
       <c r="D46" s="23" t="s">
         <v>45</v>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="K46" s="42"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="45"/>
       <c r="D47" s="23" t="s">
         <v>46</v>
@@ -2152,7 +2152,7 @@
       </c>
       <c r="K47" s="42"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="45"/>
       <c r="D48" s="25" t="s">
         <v>47</v>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="K48" s="42"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="45"/>
       <c r="D49" s="22" t="s">
         <v>48</v>
@@ -2178,7 +2178,7 @@
       </c>
       <c r="K49" s="42"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="45"/>
       <c r="D50" s="23" t="s">
         <v>49</v>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="K50" s="42"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="45"/>
       <c r="D51" s="23" t="s">
         <v>50</v>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="K51" s="42"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="45"/>
       <c r="D52" s="28" t="s">
         <v>47</v>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="K52" s="42"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="45"/>
       <c r="D53" s="31" t="s">
         <v>40</v>
@@ -2230,11 +2230,11 @@
       </c>
       <c r="K53" s="42"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="45"/>
       <c r="K54" s="42"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="46"/>
       <c r="B55" s="43"/>
       <c r="C55" s="43"/>
@@ -2263,38 +2263,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F799161F-07E5-4306-A06C-B99CAF1F223C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF6D3A6-5C2D-483B-81D6-3A5763B0A525}">
   <dimension ref="A1:V332"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>52</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="39">
         <v>60401</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="39">
         <v>60401</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="39">
         <v>60401</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="39">
         <v>61102</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="39">
         <v>61102</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="39">
         <v>61102</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="39">
         <v>61102</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="39">
         <v>61102</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="39">
         <v>61102</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="39">
         <v>61102</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="39">
         <v>61102</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="39">
         <v>61102</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
         <v>61102</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
         <v>61102</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="39">
         <v>61102</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="39">
         <v>61102</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="39">
         <v>61102</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
         <v>61102</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
         <v>61102</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
         <v>61102</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
         <v>61102</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="39">
         <v>61102</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="39">
         <v>61102</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="39">
         <v>61102</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="39">
         <v>61102</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
         <v>61102</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="39">
         <v>61102</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="39">
         <v>61102</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="39">
         <v>61102</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="39">
         <v>61102</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="39">
         <v>61102</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="39">
         <v>61102</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="39">
         <v>61102</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="39">
         <v>61102</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="39">
         <v>61102</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="39">
         <v>61102</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="39">
         <v>62001</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="39">
         <v>62001</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="39">
         <v>62001</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="39">
         <v>62001</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="39">
         <v>62001</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="39">
         <v>62001</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="39">
         <v>62001</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="39">
         <v>62001</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="39">
         <v>62001</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="39">
         <v>62001</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="39">
         <v>62001</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="39">
         <v>62001</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="39">
         <v>62001</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="39">
         <v>62001</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="39">
         <v>62001</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="39">
         <v>62001</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="39">
         <v>62001</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="39">
         <v>62001</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="39">
         <v>62201</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="39">
         <v>62201</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="39">
         <v>62201</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="39">
         <v>63001</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="39">
         <v>63001</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="39">
         <v>63001</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="39">
         <v>63001</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="39">
         <v>63001</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="39">
         <v>63001</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="39">
         <v>63001</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="39">
         <v>63001</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="39">
         <v>63001</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="39">
         <v>63001</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="39">
         <v>63001</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="39">
         <v>63001</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="39">
         <v>63001</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="39">
         <v>63001</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="39">
         <v>63001</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="39">
         <v>63001</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="39">
         <v>63001</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="39">
         <v>63001</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="39">
         <v>63001</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="39">
         <v>63001</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="39">
         <v>63001</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="39">
         <v>63001</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="39">
         <v>63001</v>
       </c>
@@ -7802,7 +7802,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="39">
         <v>63001</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" s="39">
         <v>63001</v>
       </c>
@@ -7938,7 +7938,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="39">
         <v>63001</v>
       </c>
@@ -8006,7 +8006,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" s="39">
         <v>63001</v>
       </c>
@@ -8074,7 +8074,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" s="39">
         <v>63001</v>
       </c>
@@ -8142,7 +8142,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" s="39">
         <v>63001</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" s="39">
         <v>63001</v>
       </c>
@@ -8278,7 +8278,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" s="39">
         <v>63001</v>
       </c>
@@ -8346,7 +8346,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" s="39">
         <v>63001</v>
       </c>
@@ -8414,7 +8414,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" s="39">
         <v>63001</v>
       </c>
@@ -8482,7 +8482,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" s="39">
         <v>63001</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" s="39">
         <v>63001</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" s="39">
         <v>63001</v>
       </c>
@@ -8686,7 +8686,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" s="39">
         <v>63001</v>
       </c>
@@ -8754,7 +8754,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" s="39">
         <v>63001</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" s="39">
         <v>63001</v>
       </c>
@@ -8890,7 +8890,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" s="39">
         <v>63001</v>
       </c>
@@ -8958,7 +8958,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" s="39">
         <v>63001</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" s="39">
         <v>63001</v>
       </c>
@@ -9094,7 +9094,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101" s="39">
         <v>64601</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" s="39">
         <v>64601</v>
       </c>
@@ -9230,7 +9230,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103" s="39">
         <v>64601</v>
       </c>
@@ -9298,7 +9298,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104" s="39">
         <v>64601</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105" s="39">
         <v>64601</v>
       </c>
@@ -9434,7 +9434,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106" s="39">
         <v>64601</v>
       </c>
@@ -9502,7 +9502,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107" s="39">
         <v>64601</v>
       </c>
@@ -9570,7 +9570,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108" s="39">
         <v>64601</v>
       </c>
@@ -9638,7 +9638,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109" s="39">
         <v>64601</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110" s="39">
         <v>64601</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111" s="39">
         <v>64601</v>
       </c>
@@ -9842,7 +9842,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112" s="39">
         <v>64601</v>
       </c>
@@ -9910,7 +9910,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A113" s="39">
         <v>64601</v>
       </c>
@@ -9978,7 +9978,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A114" s="39">
         <v>64601</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115" s="39">
         <v>64601</v>
       </c>
@@ -10114,7 +10114,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A116" s="39">
         <v>64601</v>
       </c>
@@ -10182,7 +10182,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A117" s="39">
         <v>64601</v>
       </c>
@@ -10250,7 +10250,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118" s="39">
         <v>64601</v>
       </c>
@@ -10318,7 +10318,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A119" s="39">
         <v>64601</v>
       </c>
@@ -10386,7 +10386,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" s="39">
         <v>64601</v>
       </c>
@@ -10454,7 +10454,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A121" s="39">
         <v>64601</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A122" s="39">
         <v>64601</v>
       </c>
@@ -10590,7 +10590,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A123" s="39">
         <v>64601</v>
       </c>
@@ -10658,7 +10658,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A124" s="39">
         <v>64601</v>
       </c>
@@ -10726,7 +10726,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A125" s="39">
         <v>64601</v>
       </c>
@@ -10794,7 +10794,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A126" s="39">
         <v>64601</v>
       </c>
@@ -10862,7 +10862,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A127" s="39">
         <v>64601</v>
       </c>
@@ -10930,7 +10930,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128" s="39">
         <v>64601</v>
       </c>
@@ -10998,7 +10998,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A129" s="39">
         <v>64601</v>
       </c>
@@ -11066,7 +11066,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A130" s="39">
         <v>64601</v>
       </c>
@@ -11134,7 +11134,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A131" s="39">
         <v>64601</v>
       </c>
@@ -11202,7 +11202,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A132" s="39">
         <v>64601</v>
       </c>
@@ -11270,7 +11270,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A133" s="39">
         <v>64601</v>
       </c>
@@ -11338,7 +11338,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A134" s="39">
         <v>64601</v>
       </c>
@@ -11406,7 +11406,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A135" s="39">
         <v>64601</v>
       </c>
@@ -11474,7 +11474,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A136" s="39">
         <v>64601</v>
       </c>
@@ -11542,7 +11542,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A137" s="39">
         <v>64601</v>
       </c>
@@ -11610,7 +11610,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A138" s="39">
         <v>64601</v>
       </c>
@@ -11678,7 +11678,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A139" s="39">
         <v>64601</v>
       </c>
@@ -11746,7 +11746,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A140" s="39">
         <v>67801</v>
       </c>
@@ -11814,7 +11814,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A141" s="39">
         <v>64601</v>
       </c>
@@ -11882,7 +11882,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A142" s="39">
         <v>64601</v>
       </c>
@@ -11950,7 +11950,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A143" s="39">
         <v>65402</v>
       </c>
@@ -12018,7 +12018,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A144" s="39">
         <v>65402</v>
       </c>
@@ -12086,7 +12086,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A145" s="39">
         <v>65402</v>
       </c>
@@ -12154,7 +12154,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A146" s="39">
         <v>65402</v>
       </c>
@@ -12222,7 +12222,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A147" s="39">
         <v>65402</v>
       </c>
@@ -12290,7 +12290,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A148" s="39">
         <v>65402</v>
       </c>
@@ -12358,7 +12358,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A149" s="39">
         <v>65402</v>
       </c>
@@ -12426,7 +12426,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A150" s="39">
         <v>65402</v>
       </c>
@@ -12494,7 +12494,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A151" s="39">
         <v>65402</v>
       </c>
@@ -12562,7 +12562,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A152" s="39">
         <v>65402</v>
       </c>
@@ -12630,7 +12630,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A153" s="39">
         <v>65402</v>
       </c>
@@ -12698,7 +12698,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A154" s="39">
         <v>65402</v>
       </c>
@@ -12766,7 +12766,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A155" s="39">
         <v>65402</v>
       </c>
@@ -12834,7 +12834,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A156" s="39">
         <v>65402</v>
       </c>
@@ -12902,7 +12902,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A157" s="39">
         <v>65402</v>
       </c>
@@ -12970,7 +12970,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A158" s="39">
         <v>65402</v>
       </c>
@@ -13038,7 +13038,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A159" s="39">
         <v>66001</v>
       </c>
@@ -13106,7 +13106,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A160" s="39">
         <v>66001</v>
       </c>
@@ -13174,7 +13174,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A161" s="39">
         <v>66001</v>
       </c>
@@ -13242,7 +13242,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A162" s="39">
         <v>66001</v>
       </c>
@@ -13310,7 +13310,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A163" s="39">
         <v>66001</v>
       </c>
@@ -13378,7 +13378,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A164" s="39">
         <v>66001</v>
       </c>
@@ -13446,7 +13446,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A165" s="39">
         <v>66001</v>
       </c>
@@ -13514,7 +13514,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A166" s="39">
         <v>66001</v>
       </c>
@@ -13582,7 +13582,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A167" s="39">
         <v>66001</v>
       </c>
@@ -13650,7 +13650,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A168" s="39">
         <v>66001</v>
       </c>
@@ -13718,7 +13718,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A169" s="39">
         <v>66001</v>
       </c>
@@ -13786,7 +13786,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A170" s="39">
         <v>66001</v>
       </c>
@@ -13854,7 +13854,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A171" s="39">
         <v>66001</v>
       </c>
@@ -13922,7 +13922,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A172" s="39">
         <v>66001</v>
       </c>
@@ -13990,7 +13990,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A173" s="39">
         <v>66001</v>
       </c>
@@ -14058,7 +14058,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A174" s="39">
         <v>66001</v>
       </c>
@@ -14126,7 +14126,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A175" s="39">
         <v>66001</v>
       </c>
@@ -14194,7 +14194,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A176" s="39">
         <v>66001</v>
       </c>
@@ -14262,7 +14262,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A177" s="39">
         <v>66001</v>
       </c>
@@ -14330,7 +14330,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A178" s="39">
         <v>66001</v>
       </c>
@@ -14398,7 +14398,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A179" s="39">
         <v>66001</v>
       </c>
@@ -14466,7 +14466,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A180" s="39">
         <v>66001</v>
       </c>
@@ -14534,7 +14534,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A181" s="39">
         <v>66001</v>
       </c>
@@ -14602,7 +14602,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A182" s="39">
         <v>66001</v>
       </c>
@@ -14670,7 +14670,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A183" s="39">
         <v>66001</v>
       </c>
@@ -14738,7 +14738,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="184" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A184" s="39">
         <v>66001</v>
       </c>
@@ -14806,7 +14806,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="185" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A185" s="39">
         <v>66001</v>
       </c>
@@ -14874,7 +14874,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A186" s="39">
         <v>66001</v>
       </c>
@@ -14942,7 +14942,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="187" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A187" s="39">
         <v>67501</v>
       </c>
@@ -15010,7 +15010,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="188" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A188" s="39">
         <v>67501</v>
       </c>
@@ -15078,7 +15078,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="189" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A189" s="39">
         <v>67501</v>
       </c>
@@ -15146,7 +15146,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A190" s="39">
         <v>67501</v>
       </c>
@@ -15214,7 +15214,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A191" s="39">
         <v>67501</v>
       </c>
@@ -15282,7 +15282,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="192" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A192" s="39">
         <v>67501</v>
       </c>
@@ -15350,7 +15350,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="193" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A193" s="39">
         <v>67501</v>
       </c>
@@ -15418,7 +15418,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="194" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A194" s="39">
         <v>67501</v>
       </c>
@@ -15486,7 +15486,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A195" s="39">
         <v>67501</v>
       </c>
@@ -15554,7 +15554,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="196" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A196" s="39">
         <v>67801</v>
       </c>
@@ -15622,7 +15622,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="197" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A197" s="39">
         <v>67801</v>
       </c>
@@ -15690,7 +15690,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="198" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A198" s="39">
         <v>67801</v>
       </c>
@@ -15758,7 +15758,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="199" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A199" s="39">
         <v>67801</v>
       </c>
@@ -15826,7 +15826,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="200" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A200" s="39">
         <v>67801</v>
       </c>
@@ -15894,7 +15894,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="201" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A201" s="39">
         <v>67801</v>
       </c>
@@ -15962,7 +15962,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="202" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A202" s="39">
         <v>67801</v>
       </c>
@@ -16030,7 +16030,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="203" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A203" s="39">
         <v>67801</v>
       </c>
@@ -16098,7 +16098,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="204" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A204" s="39">
         <v>67801</v>
       </c>
@@ -16166,7 +16166,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="205" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A205" s="39">
         <v>67801</v>
       </c>
@@ -16234,7 +16234,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="206" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A206" s="39">
         <v>67801</v>
       </c>
@@ -16302,7 +16302,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="207" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A207" s="39">
         <v>67801</v>
       </c>
@@ -16370,7 +16370,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="208" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A208" s="39">
         <v>67801</v>
       </c>
@@ -16438,7 +16438,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="209" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A209" s="39">
         <v>67801</v>
       </c>
@@ -16506,7 +16506,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="210" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A210" s="39">
         <v>67801</v>
       </c>
@@ -16574,7 +16574,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="211" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A211" s="39">
         <v>67801</v>
       </c>
@@ -16642,7 +16642,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="212" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A212" s="39">
         <v>67801</v>
       </c>
@@ -16710,7 +16710,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="213" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A213" s="39">
         <v>67801</v>
       </c>
@@ -16778,7 +16778,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="214" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A214" s="39">
         <v>67801</v>
       </c>
@@ -16846,7 +16846,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="215" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A215" s="39">
         <v>67801</v>
       </c>
@@ -16914,7 +16914,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="216" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A216" s="39">
         <v>67801</v>
       </c>
@@ -16982,7 +16982,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="217" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A217" s="39">
         <v>67801</v>
       </c>
@@ -17050,7 +17050,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="218" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A218" s="39">
         <v>67801</v>
       </c>
@@ -17118,7 +17118,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="219" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A219" s="39">
         <v>67801</v>
       </c>
@@ -17186,7 +17186,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="220" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A220" s="39">
         <v>67801</v>
       </c>
@@ -17254,7 +17254,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="221" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A221" s="39">
         <v>67801</v>
       </c>
@@ -17322,7 +17322,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="222" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A222" s="39">
         <v>67801</v>
       </c>
@@ -17390,7 +17390,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="223" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A223" s="39">
         <v>67801</v>
       </c>
@@ -17458,7 +17458,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="224" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A224" s="39">
         <v>67801</v>
       </c>
@@ -17526,7 +17526,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="225" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A225" s="39">
         <v>67801</v>
       </c>
@@ -17594,7 +17594,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="226" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A226" s="39">
         <v>67801</v>
       </c>
@@ -17662,7 +17662,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="227" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A227" s="39">
         <v>67801</v>
       </c>
@@ -17730,7 +17730,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="228" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A228" s="39">
         <v>67801</v>
       </c>
@@ -17798,7 +17798,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="229" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A229" s="39">
         <v>70200</v>
       </c>
@@ -17866,7 +17866,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="230" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A230" s="39">
         <v>70200</v>
       </c>
@@ -17934,7 +17934,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="231" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A231" s="39">
         <v>70200</v>
       </c>
@@ -18002,7 +18002,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="232" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A232" s="39">
         <v>70200</v>
       </c>
@@ -18070,7 +18070,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="233" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A233" s="39">
         <v>70200</v>
       </c>
@@ -18138,7 +18138,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="234" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A234" s="39">
         <v>70200</v>
       </c>
@@ -18206,7 +18206,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="235" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A235" s="39">
         <v>70200</v>
       </c>
@@ -18274,7 +18274,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="236" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A236" s="39">
         <v>70200</v>
       </c>
@@ -18342,7 +18342,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="237" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A237" s="39">
         <v>70200</v>
       </c>
@@ -18410,7 +18410,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="238" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A238" s="39">
         <v>70200</v>
       </c>
@@ -18478,7 +18478,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="239" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A239" s="39">
         <v>70200</v>
       </c>
@@ -18546,7 +18546,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="240" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A240" s="39">
         <v>70200</v>
       </c>
@@ -18614,7 +18614,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="241" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A241" s="39">
         <v>70200</v>
       </c>
@@ -18682,7 +18682,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="242" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A242" s="39">
         <v>70200</v>
       </c>
@@ -18750,7 +18750,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="243" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A243" s="39">
         <v>70200</v>
       </c>
@@ -18818,7 +18818,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="244" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A244" s="39">
         <v>70200</v>
       </c>
@@ -18886,7 +18886,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="245" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A245" s="39">
         <v>70200</v>
       </c>
@@ -18954,7 +18954,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="246" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A246" s="39">
         <v>70200</v>
       </c>
@@ -19022,7 +19022,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="247" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A247" s="39">
         <v>70200</v>
       </c>
@@ -19090,7 +19090,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="248" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A248" s="39">
         <v>71901</v>
       </c>
@@ -19158,7 +19158,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="249" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A249" s="39">
         <v>71901</v>
       </c>
@@ -19226,7 +19226,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="250" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A250" s="39">
         <v>71901</v>
       </c>
@@ -19294,7 +19294,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="251" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A251" s="39">
         <v>71901</v>
       </c>
@@ -19362,7 +19362,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="252" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A252" s="39">
         <v>71901</v>
       </c>
@@ -19430,7 +19430,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="253" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A253" s="39">
         <v>71901</v>
       </c>
@@ -19498,7 +19498,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="254" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A254" s="39">
         <v>71901</v>
       </c>
@@ -19566,7 +19566,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="255" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A255" s="39">
         <v>71901</v>
       </c>
@@ -19634,7 +19634,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="256" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A256" s="39">
         <v>72001</v>
       </c>
@@ -19702,7 +19702,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="257" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A257" s="39">
         <v>72001</v>
       </c>
@@ -19770,7 +19770,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="258" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A258" s="39">
         <v>72001</v>
       </c>
@@ -19838,7 +19838,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="259" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A259" s="39">
         <v>72001</v>
       </c>
@@ -19906,7 +19906,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="260" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A260" s="39">
         <v>72001</v>
       </c>
@@ -19974,7 +19974,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="261" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A261" s="39">
         <v>72001</v>
       </c>
@@ -20042,7 +20042,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="262" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A262" s="39">
         <v>72001</v>
       </c>
@@ -20110,7 +20110,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="263" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A263" s="39">
         <v>72001</v>
       </c>
@@ -20178,7 +20178,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="264" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A264" s="39">
         <v>72001</v>
       </c>
@@ -20246,7 +20246,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="265" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A265" s="39">
         <v>72001</v>
       </c>
@@ -20314,7 +20314,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="266" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A266" s="39">
         <v>72601</v>
       </c>
@@ -20382,7 +20382,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="267" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A267" s="39">
         <v>72601</v>
       </c>
@@ -20450,7 +20450,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="268" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A268" s="39">
         <v>72601</v>
       </c>
@@ -20518,7 +20518,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="269" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A269" s="39">
         <v>72601</v>
       </c>
@@ -20586,7 +20586,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="270" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A270" s="39">
         <v>72601</v>
       </c>
@@ -20654,7 +20654,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="271" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A271" s="39">
         <v>72601</v>
       </c>
@@ -20722,7 +20722,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="272" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A272" s="39">
         <v>72601</v>
       </c>
@@ -20790,7 +20790,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="273" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A273" s="39">
         <v>72601</v>
       </c>
@@ -20858,7 +20858,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="274" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A274" s="39">
         <v>72601</v>
       </c>
@@ -20926,7 +20926,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="275" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A275" s="39">
         <v>72601</v>
       </c>
@@ -20994,7 +20994,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="276" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A276" s="39">
         <v>72601</v>
       </c>
@@ -21062,7 +21062,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="277" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A277" s="39">
         <v>72601</v>
       </c>
@@ -21130,7 +21130,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="278" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A278" s="39">
         <v>72601</v>
       </c>
@@ -21198,7 +21198,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="279" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A279" s="39">
         <v>72601</v>
       </c>
@@ -21266,7 +21266,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="280" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A280" s="39">
         <v>72601</v>
       </c>
@@ -21334,7 +21334,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="281" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A281" s="39">
         <v>72601</v>
       </c>
@@ -21402,7 +21402,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="282" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A282" s="39">
         <v>72601</v>
       </c>
@@ -21470,7 +21470,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="283" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A283" s="39">
         <v>72601</v>
       </c>
@@ -21538,7 +21538,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="284" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A284" s="39">
         <v>72601</v>
       </c>
@@ -21606,7 +21606,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="285" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A285" s="39">
         <v>72601</v>
       </c>
@@ -21674,7 +21674,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="286" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A286" s="39">
         <v>72601</v>
       </c>
@@ -21742,7 +21742,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="287" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A287" s="39">
         <v>72801</v>
       </c>
@@ -21810,7 +21810,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="288" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A288" s="39">
         <v>72801</v>
       </c>
@@ -21878,7 +21878,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="289" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A289" s="39">
         <v>72801</v>
       </c>
@@ -21946,7 +21946,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="290" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A290" s="39">
         <v>72801</v>
       </c>
@@ -22014,7 +22014,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="291" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A291" s="39">
         <v>72801</v>
       </c>
@@ -22082,7 +22082,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="292" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A292" s="39">
         <v>72801</v>
       </c>
@@ -22150,7 +22150,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="293" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A293" s="39">
         <v>72801</v>
       </c>
@@ -22218,7 +22218,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="294" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A294" s="39">
         <v>72801</v>
       </c>
@@ -22286,7 +22286,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="295" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A295" s="39">
         <v>72801</v>
       </c>
@@ -22354,7 +22354,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="296" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A296" s="39">
         <v>72801</v>
       </c>
@@ -22422,7 +22422,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="297" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A297" s="39">
         <v>72801</v>
       </c>
@@ -22490,7 +22490,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="298" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A298" s="39">
         <v>72801</v>
       </c>
@@ -22558,7 +22558,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="299" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A299" s="39">
         <v>72801</v>
       </c>
@@ -22626,7 +22626,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="300" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A300" s="39">
         <v>72801</v>
       </c>
@@ -22694,7 +22694,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="301" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A301" s="39">
         <v>73601</v>
       </c>
@@ -22762,7 +22762,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="302" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A302" s="39">
         <v>73601</v>
       </c>
@@ -22830,7 +22830,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="303" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A303" s="39">
         <v>73601</v>
       </c>
@@ -22898,7 +22898,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="304" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A304" s="39">
         <v>73601</v>
       </c>
@@ -22966,7 +22966,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="305" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A305" s="39">
         <v>73601</v>
       </c>
@@ -23034,7 +23034,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="306" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A306" s="39">
         <v>73601</v>
       </c>
@@ -23102,7 +23102,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="307" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A307" s="39">
         <v>73601</v>
       </c>
@@ -23170,7 +23170,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="308" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A308" s="39">
         <v>73601</v>
       </c>
@@ -23238,7 +23238,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="309" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A309" s="39">
         <v>73601</v>
       </c>
@@ -23306,7 +23306,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="310" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A310" s="39">
         <v>73601</v>
       </c>
@@ -23374,7 +23374,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="311" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A311" s="39">
         <v>73601</v>
       </c>
@@ -23442,7 +23442,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="312" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A312" s="39">
         <v>73601</v>
       </c>
@@ -23510,7 +23510,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="313" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A313" s="39">
         <v>73601</v>
       </c>
@@ -23578,7 +23578,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="314" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A314" s="39">
         <v>73601</v>
       </c>
@@ -23646,7 +23646,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="315" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A315" s="39">
         <v>73601</v>
       </c>
@@ -23714,7 +23714,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="316" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A316" s="39">
         <v>73601</v>
       </c>
@@ -23782,7 +23782,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="317" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A317" s="39">
         <v>96223</v>
       </c>
@@ -23850,7 +23850,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="318" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A318" s="39">
         <v>96223</v>
       </c>
@@ -23918,7 +23918,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="319" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A319" s="39">
         <v>96223</v>
       </c>
@@ -23986,7 +23986,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="320" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A320" s="39">
         <v>96223</v>
       </c>
@@ -24054,7 +24054,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="321" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A321" s="39">
         <v>96223</v>
       </c>
@@ -24122,7 +24122,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="322" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A322" s="39">
         <v>96223</v>
       </c>
@@ -24190,7 +24190,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="323" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A323" s="39">
         <v>96223</v>
       </c>
@@ -24258,7 +24258,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="324" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A324" s="39">
         <v>96223</v>
       </c>
@@ -24326,7 +24326,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="325" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A325" s="39">
         <v>96223</v>
       </c>
@@ -24394,7 +24394,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="326" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A326" s="39">
         <v>96223</v>
       </c>
@@ -24462,7 +24462,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="327" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A327" s="39">
         <v>96223</v>
       </c>
@@ -24530,7 +24530,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="328" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A328" s="39">
         <v>96223</v>
       </c>
@@ -24598,7 +24598,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="329" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A329" s="39">
         <v>96223</v>
       </c>
@@ -24666,7 +24666,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="330" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A330" s="39">
         <v>96223</v>
       </c>
@@ -24734,7 +24734,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="331" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A331" s="39">
         <v>96223</v>
       </c>
@@ -24802,7 +24802,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="332" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A332" s="39">
         <v>96223</v>
       </c>
@@ -24873,276 +24873,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A7B740158B06348BBFDD0A82FAE521C" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b9ca6de6a992593ec3295afdb73980d5">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45be6600-ce97-4f91-b2b5-90c5c801df6a" xmlns:ns3="4ff60255-49bc-4e52-8060-8afe9711eecb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3c3625fcdb5b97911e04df756c65f947" ns2:_="" ns3:_="">
-    <xsd:import namespace="45be6600-ce97-4f91-b2b5-90c5c801df6a"/>
-    <xsd:import namespace="4ff60255-49bc-4e52-8060-8afe9711eecb"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="45be6600-ce97-4f91-b2b5-90c5c801df6a" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="94b3629e-20aa-442c-aac2-3c67759175e0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="24" nillable="true" ma:displayName="Location" ma:description="" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4ff60255-49bc-4e52-8060-8afe9711eecb" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{6c69ecb4-97a0-434f-9afd-668c5bcfe455}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="4ff60255-49bc-4e52-8060-8afe9711eecb">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BB404E7-ADBF-4596-83D7-CAE325BB6659}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{705E46C7-0092-4F1C-9BB6-CDD82B37E44E}"/>
 </file>
--- a/New files/Oregon Health Science University/Invoice 10176150 - Hillsboro Medical Center.xlsx
+++ b/New files/Oregon Health Science University/Invoice 10176150 - Hillsboro Medical Center.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F49C21DC-38E7-4DD8-9D1D-22F70D81CC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98F47299-2EC7-407B-B087-B04A3DE763B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F975E474-CC37-4C97-84B1-E172BE5278BB}"/>
+    <workbookView xWindow="-28920" yWindow="-1425" windowWidth="29040" windowHeight="15840" xr2:uid="{2F689CD7-0730-46CE-AAA5-1322B226C685}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <t>PO Box 674907</t>
   </si>
   <si>
-    <t>Dallas, TX 75267-4907</t>
+    <t>Dallas, TX 7526 - 4907</t>
   </si>
   <si>
     <t>PNC Bank. N.A</t>
@@ -1217,7 +1217,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A3BDFFF-C762-8ACB-0C48-1CB83CC68E25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EE997A7-D862-7353-E5A5-C74040219E68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1568,7 +1568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB95AA0-969C-40CF-BE9F-A61E5CE0CF60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B710F604-0193-4C4A-A7CA-2A5AFF420E80}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2277,13 +2277,13 @@
     <mergeCell ref="I23:J23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="50" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="50" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB18380-ADC3-41FE-888E-BEAD4BD6D9A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918B37AE-EEF9-4638-8A06-CFAF2F75304F}">
   <dimension ref="A1:V332"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/New files/Oregon Health Science University/Invoice 10176150 - Hillsboro Medical Center.xlsx
+++ b/New files/Oregon Health Science University/Invoice 10176150 - Hillsboro Medical Center.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98F47299-2EC7-407B-B087-B04A3DE763B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A226E25-6BC0-421D-A49E-28D76554A1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1425" windowWidth="29040" windowHeight="15840" xr2:uid="{2F689CD7-0730-46CE-AAA5-1322B226C685}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{520E073F-51E7-4CC6-9E16-559431DF32F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -1204,20 +1204,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:rowOff>134620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1676400</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EE997A7-D862-7353-E5A5-C74040219E68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{887A7FA3-DC5B-FE79-40F5-403054687098}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1568,7 +1568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B710F604-0193-4C4A-A7CA-2A5AFF420E80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20B2B48-AED3-4908-8BBB-E1E83566C152}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1578,14 +1578,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
     <col min="3" max="3" width="10.77734375" customWidth="1"/>
     <col min="4" max="4" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -2277,13 +2279,13 @@
     <mergeCell ref="I23:J23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="50" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup scale="60" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918B37AE-EEF9-4638-8A06-CFAF2F75304F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A93BE4-85B5-48AF-B103-9288FC92FCF0}">
   <dimension ref="A1:V332"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2292,24 +2294,24 @@
   <cols>
     <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>

--- a/New files/Oregon Health Science University/Invoice 10176150 - Hillsboro Medical Center.xlsx
+++ b/New files/Oregon Health Science University/Invoice 10176150 - Hillsboro Medical Center.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A226E25-6BC0-421D-A49E-28D76554A1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66845FC9-B0CB-4BDF-B037-79F7A5D55F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{520E073F-51E7-4CC6-9E16-559431DF32F8}"/>
+    <workbookView xWindow="-28920" yWindow="1740" windowWidth="29040" windowHeight="15840" xr2:uid="{F83E1A35-E3B5-4771-AAC7-E74B5B713BEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -1204,20 +1204,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>134620</xdr:rowOff>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1682115</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{887A7FA3-DC5B-FE79-40F5-403054687098}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1536006E-004D-B5ED-187B-BB2CCC045F0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1568,7 +1568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20B2B48-AED3-4908-8BBB-E1E83566C152}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C5FDBA-3B05-4195-A261-ACFE29BEC098}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1579,14 +1579,14 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2279,13 +2279,13 @@
     <mergeCell ref="I23:J23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="60" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="56" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A93BE4-85B5-48AF-B103-9288FC92FCF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61DBC34-47FF-41E8-B39B-50862DE4DA6B}">
   <dimension ref="A1:V332"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2294,24 +2294,24 @@
   <cols>
     <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>

--- a/New files/Oregon Health Science University/Invoice 10176150 - Hillsboro Medical Center.xlsx
+++ b/New files/Oregon Health Science University/Invoice 10176150 - Hillsboro Medical Center.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66845FC9-B0CB-4BDF-B037-79F7A5D55F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BB87EBC-3AAA-4B7F-AD37-12FF131CEBB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1740" windowWidth="29040" windowHeight="15840" xr2:uid="{F83E1A35-E3B5-4771-AAC7-E74B5B713BEB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{EF6FC32A-EB36-417B-9C34-53157B410B5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -1204,20 +1204,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:rowOff>134620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1682115</xdr:colOff>
+      <xdr:colOff>1676400</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1536006E-004D-B5ED-187B-BB2CCC045F0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70417699-7F97-E713-AAB2-4E9BB8F0E023}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1568,7 +1568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C5FDBA-3B05-4195-A261-ACFE29BEC098}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314FB7D3-9251-490D-9086-525FCAF66995}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1584,9 +1584,9 @@
     <col min="4" max="4" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2279,13 +2279,13 @@
     <mergeCell ref="I23:J23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="56" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup scale="55" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61DBC34-47FF-41E8-B39B-50862DE4DA6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AEF2D2-7FAD-404E-A765-A0B93277DF44}">
   <dimension ref="A1:V332"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2294,24 +2294,24 @@
   <cols>
     <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
